--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H2">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I2">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J2">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>4.190057832981898</v>
+        <v>4.366363223766</v>
       </c>
       <c r="R2">
-        <v>4.190057832981898</v>
+        <v>17.465452895064</v>
       </c>
       <c r="S2">
-        <v>0.07667349550803321</v>
+        <v>0.06137889890489433</v>
       </c>
       <c r="T2">
-        <v>0.07667349550803321</v>
+        <v>0.03765070719028654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H3">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I3">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J3">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>0.5132520883491232</v>
+        <v>0.547054757717</v>
       </c>
       <c r="R3">
-        <v>0.5132520883491232</v>
+        <v>3.282328546302</v>
       </c>
       <c r="S3">
-        <v>0.00939195430210072</v>
+        <v>0.007690065381320343</v>
       </c>
       <c r="T3">
-        <v>0.00939195430210072</v>
+        <v>0.007075796530536097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H4">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I4">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J4">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>1.693691357078206</v>
+        <v>0.1781402141936667</v>
       </c>
       <c r="R4">
-        <v>1.693691357078206</v>
+        <v>1.068841285162</v>
       </c>
       <c r="S4">
-        <v>0.03099270746020072</v>
+        <v>0.002504154976932643</v>
       </c>
       <c r="T4">
-        <v>0.03099270746020072</v>
+        <v>0.002304127496853929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H5">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I5">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J5">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P5">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q5">
-        <v>0.5012902605690656</v>
+        <v>0.03458175888366667</v>
       </c>
       <c r="R5">
-        <v>0.5012902605690656</v>
+        <v>0.207490553302</v>
       </c>
       <c r="S5">
-        <v>0.00917306587976374</v>
+        <v>0.0004861231587241311</v>
       </c>
       <c r="T5">
-        <v>0.00917306587976374</v>
+        <v>0.0004472924987437332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.08094893972871</v>
+        <v>0.638861</v>
       </c>
       <c r="H6">
-        <v>3.08094893972871</v>
+        <v>1.277722</v>
       </c>
       <c r="I6">
-        <v>0.6283617661912632</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J6">
-        <v>0.6283617661912632</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N6">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O6">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P6">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q6">
-        <v>20.85753488457732</v>
+        <v>1.884072002571</v>
       </c>
       <c r="R6">
-        <v>20.85753488457732</v>
+        <v>11.304432015426</v>
       </c>
       <c r="S6">
-        <v>0.3816701752164561</v>
+        <v>0.0264848018932345</v>
       </c>
       <c r="T6">
-        <v>0.3816701752164561</v>
+        <v>0.02436924265992505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.08094893972871</v>
+        <v>0.638861</v>
       </c>
       <c r="H7">
-        <v>3.08094893972871</v>
+        <v>1.277722</v>
       </c>
       <c r="I7">
-        <v>0.6283617661912632</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J7">
-        <v>0.6283617661912632</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N7">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O7">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P7">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q7">
-        <v>2.554898706423236</v>
+        <v>0.5176540550665001</v>
       </c>
       <c r="R7">
-        <v>2.554898706423236</v>
+        <v>2.070616220266</v>
       </c>
       <c r="S7">
-        <v>0.04675186412666112</v>
+        <v>0.007276773434856613</v>
       </c>
       <c r="T7">
-        <v>0.04675186412666112</v>
+        <v>0.004463678410236115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.08094893972871</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H8">
-        <v>3.08094893972871</v>
+        <v>10.547429</v>
       </c>
       <c r="I8">
-        <v>0.6283617661912632</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J8">
-        <v>0.6283617661912632</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N8">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O8">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P8">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q8">
-        <v>8.430963956128863</v>
+        <v>24.029173842658</v>
       </c>
       <c r="R8">
-        <v>8.430963956128863</v>
+        <v>144.175043055948</v>
       </c>
       <c r="S8">
-        <v>0.1542774593539671</v>
+        <v>0.3377832206053955</v>
       </c>
       <c r="T8">
-        <v>0.1542774593539671</v>
+        <v>0.3108016930829529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.08094893972871</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H9">
-        <v>3.08094893972871</v>
+        <v>10.547429</v>
       </c>
       <c r="I9">
-        <v>0.6283617661912632</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J9">
-        <v>0.6283617661912632</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.809930450773398</v>
+        <v>0.856297</v>
       </c>
       <c r="N9">
-        <v>0.809930450773398</v>
+        <v>2.568891</v>
       </c>
       <c r="O9">
-        <v>0.07266875540654688</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P9">
-        <v>0.07266875540654688</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q9">
-        <v>2.495354363564297</v>
+        <v>3.010577270137667</v>
       </c>
       <c r="R9">
-        <v>2.495354363564297</v>
+        <v>27.095195431239</v>
       </c>
       <c r="S9">
-        <v>0.0456622674941787</v>
+        <v>0.04232032665156387</v>
       </c>
       <c r="T9">
-        <v>0.0456622674941787</v>
+        <v>0.05840978047202429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.334556478181017</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H10">
-        <v>0.334556478181017</v>
+        <v>10.547429</v>
       </c>
       <c r="I10">
-        <v>0.06823303587078063</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J10">
-        <v>0.06823303587078063</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.7698411407019</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N10">
-        <v>6.7698411407019</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O10">
-        <v>0.6074051537697821</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P10">
-        <v>0.6074051537697821</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q10">
-        <v>2.264894209878187</v>
+        <v>0.9803495393898891</v>
       </c>
       <c r="R10">
-        <v>2.264894209878187</v>
+        <v>8.823145854509002</v>
       </c>
       <c r="S10">
-        <v>0.04144509764527057</v>
+        <v>0.01378098252159896</v>
       </c>
       <c r="T10">
-        <v>0.04144509764527057</v>
+        <v>0.01902027293888228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.334556478181017</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H11">
-        <v>0.334556478181017</v>
+        <v>10.547429</v>
       </c>
       <c r="I11">
-        <v>0.06823303587078063</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J11">
-        <v>0.06823303587078063</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.829257075142636</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N11">
-        <v>0.829257075142636</v>
+        <v>0.162391</v>
       </c>
       <c r="O11">
-        <v>0.07440278298605235</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P11">
-        <v>0.07440278298605235</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q11">
-        <v>0.2774333265664113</v>
+        <v>0.1903119491932223</v>
       </c>
       <c r="R11">
-        <v>0.2774333265664113</v>
+        <v>1.712807542739</v>
       </c>
       <c r="S11">
-        <v>0.005076727760373216</v>
+        <v>0.002675255651280692</v>
       </c>
       <c r="T11">
-        <v>0.005076727760373216</v>
+        <v>0.003692341426955249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.334556478181017</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H12">
-        <v>0.334556478181017</v>
+        <v>10.547429</v>
       </c>
       <c r="I12">
-        <v>0.06823303587078063</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J12">
-        <v>0.06823303587078063</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.73648285676271</v>
+        <v>2.949111</v>
       </c>
       <c r="N12">
-        <v>2.73648285676271</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O12">
-        <v>0.2455233078376184</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P12">
-        <v>0.2455233078376184</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q12">
-        <v>0.9155080671612608</v>
+        <v>10.368512961873</v>
       </c>
       <c r="R12">
-        <v>0.9155080671612608</v>
+        <v>93.31661665685702</v>
       </c>
       <c r="S12">
-        <v>0.01675280067079693</v>
+        <v>0.1457523976514226</v>
       </c>
       <c r="T12">
-        <v>0.01675280067079693</v>
+        <v>0.2011649300390309</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.334556478181017</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H13">
-        <v>0.334556478181017</v>
+        <v>10.547429</v>
       </c>
       <c r="I13">
-        <v>0.06823303587078063</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J13">
-        <v>0.06823303587078063</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.809930450773398</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N13">
-        <v>0.809930450773398</v>
+        <v>1.620553</v>
       </c>
       <c r="O13">
-        <v>0.07266875540654688</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P13">
-        <v>0.07266875540654688</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q13">
-        <v>0.2709674791823116</v>
+        <v>2.848777951372834</v>
       </c>
       <c r="R13">
-        <v>0.2709674791823116</v>
+        <v>17.092667708237</v>
       </c>
       <c r="S13">
-        <v>0.004958409794339897</v>
+        <v>0.0400458791261512</v>
       </c>
       <c r="T13">
-        <v>0.004958409794339897</v>
+        <v>0.03684708497685592</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.151260163562026</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H14">
-        <v>0.151260163562026</v>
+        <v>1.18336</v>
       </c>
       <c r="I14">
-        <v>0.03084961983777089</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J14">
-        <v>0.03084961983777089</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N14">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O14">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P14">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q14">
-        <v>1.024007278231502</v>
+        <v>2.69593311872</v>
       </c>
       <c r="R14">
-        <v>1.024007278231502</v>
+        <v>16.17559871232</v>
       </c>
       <c r="S14">
-        <v>0.01873821808130055</v>
+        <v>0.03789730672143901</v>
       </c>
       <c r="T14">
-        <v>0.01873821808130055</v>
+        <v>0.03487013674390632</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.151260163562026</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H15">
-        <v>0.151260163562026</v>
+        <v>1.18336</v>
       </c>
       <c r="I15">
-        <v>0.03084961983777089</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J15">
-        <v>0.03084961983777089</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N15">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O15">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P15">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q15">
-        <v>0.1254335608210424</v>
+        <v>0.3377692059733333</v>
       </c>
       <c r="R15">
-        <v>0.1254335608210424</v>
+        <v>3.03992285376</v>
       </c>
       <c r="S15">
-        <v>0.002295297569991883</v>
+        <v>0.004748093753121696</v>
       </c>
       <c r="T15">
-        <v>0.002295297569991883</v>
+        <v>0.006553236605752421</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.151260163562026</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H16">
-        <v>0.151260163562026</v>
+        <v>1.18336</v>
       </c>
       <c r="I16">
-        <v>0.03084961983777089</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J16">
-        <v>0.03084961983777089</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N16">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O16">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P16">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q16">
-        <v>0.4139208444986077</v>
+        <v>0.1099894989511111</v>
       </c>
       <c r="R16">
-        <v>0.4139208444986077</v>
+        <v>0.9899054905600001</v>
       </c>
       <c r="S16">
-        <v>0.007574300708102523</v>
+        <v>0.001546145840541742</v>
       </c>
       <c r="T16">
-        <v>0.007574300708102523</v>
+        <v>0.002133963659291352</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.151260163562026</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H17">
-        <v>0.151260163562026</v>
+        <v>1.18336</v>
       </c>
       <c r="I17">
-        <v>0.03084961983777089</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J17">
-        <v>0.03084961983777089</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N17">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O17">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P17">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q17">
-        <v>0.1225102124578496</v>
+        <v>0.02135189041777778</v>
       </c>
       <c r="R17">
-        <v>0.1225102124578496</v>
+        <v>0.19216701376</v>
       </c>
       <c r="S17">
-        <v>0.002241803478375929</v>
+        <v>0.0003001480766070594</v>
       </c>
       <c r="T17">
-        <v>0.002241803478375929</v>
+        <v>0.0004142591669497622</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.717449549759424</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H18">
-        <v>0.717449549759424</v>
+        <v>1.18336</v>
       </c>
       <c r="I18">
-        <v>0.1463243549500871</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J18">
-        <v>0.1463243549500871</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N18">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O18">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P18">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q18">
-        <v>4.857019478339404</v>
+        <v>1.16328666432</v>
       </c>
       <c r="R18">
-        <v>4.857019478339404</v>
+        <v>10.46957997888</v>
       </c>
       <c r="S18">
-        <v>0.08887816731872181</v>
+        <v>0.0163525686956307</v>
       </c>
       <c r="T18">
-        <v>0.08887816731872181</v>
+        <v>0.02256953155228517</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.717449549759424</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H19">
-        <v>0.717449549759424</v>
+        <v>1.18336</v>
       </c>
       <c r="I19">
-        <v>0.1463243549500871</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J19">
-        <v>0.1463243549500871</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N19">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O19">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P19">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q19">
-        <v>0.594950115195901</v>
+        <v>0.3196162663466667</v>
       </c>
       <c r="R19">
-        <v>0.594950115195901</v>
+        <v>1.91769759808</v>
       </c>
       <c r="S19">
-        <v>0.01088693922692542</v>
+        <v>0.004492914009918652</v>
       </c>
       <c r="T19">
-        <v>0.01088693922692542</v>
+        <v>0.004134027968162878</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.717449549759424</v>
+        <v>0.4174183333333333</v>
       </c>
       <c r="H20">
-        <v>0.717449549759424</v>
+        <v>1.252255</v>
       </c>
       <c r="I20">
-        <v>0.1463243549500871</v>
+        <v>0.06914109544511213</v>
       </c>
       <c r="J20">
-        <v>0.1463243549500871</v>
+        <v>0.07478985016945827</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N20">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O20">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P20">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q20">
-        <v>1.963288393508789</v>
+        <v>2.85288984551</v>
       </c>
       <c r="R20">
-        <v>1.963288393508789</v>
+        <v>17.11733907306</v>
       </c>
       <c r="S20">
-        <v>0.03592603964455117</v>
+        <v>0.04010368089884363</v>
       </c>
       <c r="T20">
-        <v>0.03592603964455117</v>
+        <v>0.03690026964595763</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.252255</v>
+      </c>
+      <c r="I21">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J21">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.856297</v>
+      </c>
+      <c r="N21">
+        <v>2.568891</v>
+      </c>
+      <c r="O21">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P21">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q21">
+        <v>0.3574340665783333</v>
+      </c>
+      <c r="R21">
+        <v>3.216906599205</v>
+      </c>
+      <c r="S21">
+        <v>0.005024526891914049</v>
+      </c>
+      <c r="T21">
+        <v>0.006934764827048826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.252255</v>
+      </c>
+      <c r="I22">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J22">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P22">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q22">
+        <v>0.1163930672061111</v>
+      </c>
+      <c r="R22">
+        <v>1.047537604855</v>
+      </c>
+      <c r="S22">
+        <v>0.001636162164977351</v>
+      </c>
+      <c r="T22">
+        <v>0.002258202628249977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.252255</v>
+      </c>
+      <c r="I23">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J23">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.162391</v>
+      </c>
+      <c r="O23">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P23">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q23">
+        <v>0.02259499352277778</v>
+      </c>
+      <c r="R23">
+        <v>0.203354941705</v>
+      </c>
+      <c r="S23">
+        <v>0.0003176226420291146</v>
+      </c>
+      <c r="T23">
+        <v>0.0004383772589141719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.252255</v>
+      </c>
+      <c r="I24">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J24">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.949111</v>
+      </c>
+      <c r="N24">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P24">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q24">
+        <v>1.231012998435</v>
+      </c>
+      <c r="R24">
+        <v>11.079116985915</v>
+      </c>
+      <c r="S24">
+        <v>0.01730461221601796</v>
+      </c>
+      <c r="T24">
+        <v>0.02388352549858611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.252255</v>
+      </c>
+      <c r="I25">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J25">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.620553</v>
+      </c>
+      <c r="O25">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P25">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q25">
+        <v>0.3382242661691667</v>
+      </c>
+      <c r="R25">
+        <v>2.029345597015</v>
+      </c>
+      <c r="S25">
+        <v>0.004754490631330011</v>
+      </c>
+      <c r="T25">
+        <v>0.004374710310701566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.717449549759424</v>
-      </c>
-      <c r="H21">
-        <v>0.717449549759424</v>
-      </c>
-      <c r="I21">
-        <v>0.1463243549500871</v>
-      </c>
-      <c r="J21">
-        <v>0.1463243549500871</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="N21">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="O21">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="P21">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="Q21">
-        <v>0.5810842372438217</v>
-      </c>
-      <c r="R21">
-        <v>0.5810842372438217</v>
-      </c>
-      <c r="S21">
-        <v>0.01063320875988862</v>
-      </c>
-      <c r="T21">
-        <v>0.01063320875988862</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.341576</v>
+      </c>
+      <c r="H26">
+        <v>1.024728</v>
+      </c>
+      <c r="I26">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J26">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.834606</v>
+      </c>
+      <c r="N26">
+        <v>13.669212</v>
+      </c>
+      <c r="O26">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P26">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q26">
+        <v>2.334537379056</v>
+      </c>
+      <c r="R26">
+        <v>14.007224274336</v>
+      </c>
+      <c r="S26">
+        <v>0.03281708974618609</v>
+      </c>
+      <c r="T26">
+        <v>0.03019571853477357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.341576</v>
+      </c>
+      <c r="H27">
+        <v>1.024728</v>
+      </c>
+      <c r="I27">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J27">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.856297</v>
+      </c>
+      <c r="N27">
+        <v>2.568891</v>
+      </c>
+      <c r="O27">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P27">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q27">
+        <v>0.2924905040720001</v>
+      </c>
+      <c r="R27">
+        <v>2.632414536648</v>
+      </c>
+      <c r="S27">
+        <v>0.004111601385418545</v>
+      </c>
+      <c r="T27">
+        <v>0.005674760884717641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.341576</v>
+      </c>
+      <c r="H28">
+        <v>1.024728</v>
+      </c>
+      <c r="I28">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J28">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P28">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q28">
+        <v>0.09524516569866669</v>
+      </c>
+      <c r="R28">
+        <v>0.8572064912880002</v>
+      </c>
+      <c r="S28">
+        <v>0.001338881603980748</v>
+      </c>
+      <c r="T28">
+        <v>0.001847901156586592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.341576</v>
+      </c>
+      <c r="H29">
+        <v>1.024728</v>
+      </c>
+      <c r="I29">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J29">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.162391</v>
+      </c>
+      <c r="O29">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P29">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q29">
+        <v>0.01848962273866667</v>
+      </c>
+      <c r="R29">
+        <v>0.166406604648</v>
+      </c>
+      <c r="S29">
+        <v>0.0002599125695015877</v>
+      </c>
+      <c r="T29">
+        <v>0.0003587268182379799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.341576</v>
+      </c>
+      <c r="H30">
+        <v>1.024728</v>
+      </c>
+      <c r="I30">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J30">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.949111</v>
+      </c>
+      <c r="N30">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P30">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q30">
+        <v>1.007345538936</v>
+      </c>
+      <c r="R30">
+        <v>9.066109850424002</v>
+      </c>
+      <c r="S30">
+        <v>0.0141604710437536</v>
+      </c>
+      <c r="T30">
+        <v>0.01954403641200486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.341576</v>
+      </c>
+      <c r="H31">
+        <v>1.024728</v>
+      </c>
+      <c r="I31">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J31">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.620553</v>
+      </c>
+      <c r="O31">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P31">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q31">
+        <v>0.276771005764</v>
+      </c>
+      <c r="R31">
+        <v>1.660626034584</v>
+      </c>
+      <c r="S31">
+        <v>0.003890629045730734</v>
+      </c>
+      <c r="T31">
+        <v>0.00357985246396668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7290775</v>
+      </c>
+      <c r="H32">
+        <v>1.458155</v>
+      </c>
+      <c r="I32">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J32">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.834606</v>
+      </c>
+      <c r="N32">
+        <v>13.669212</v>
+      </c>
+      <c r="O32">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P32">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q32">
+        <v>4.982957455965</v>
+      </c>
+      <c r="R32">
+        <v>19.93182982386</v>
+      </c>
+      <c r="S32">
+        <v>0.07004649550736873</v>
+      </c>
+      <c r="T32">
+        <v>0.04296753671225217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7290775</v>
+      </c>
+      <c r="H33">
+        <v>1.458155</v>
+      </c>
+      <c r="I33">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J33">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.856297</v>
+      </c>
+      <c r="N33">
+        <v>2.568891</v>
+      </c>
+      <c r="O33">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P33">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q33">
+        <v>0.6243068760175</v>
+      </c>
+      <c r="R33">
+        <v>3.745841256105</v>
+      </c>
+      <c r="S33">
+        <v>0.008776014881248946</v>
+      </c>
+      <c r="T33">
+        <v>0.008075002300957378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7290775</v>
+      </c>
+      <c r="H34">
+        <v>1.458155</v>
+      </c>
+      <c r="I34">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J34">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P34">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q34">
+        <v>0.2032962131258334</v>
+      </c>
+      <c r="R34">
+        <v>1.219777278755</v>
+      </c>
+      <c r="S34">
+        <v>0.002857778218101605</v>
+      </c>
+      <c r="T34">
+        <v>0.002629503937613222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7290775</v>
+      </c>
+      <c r="H35">
+        <v>1.458155</v>
+      </c>
+      <c r="I35">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J35">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.162391</v>
+      </c>
+      <c r="O35">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P35">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q35">
+        <v>0.03946520810083334</v>
+      </c>
+      <c r="R35">
+        <v>0.236791248605</v>
+      </c>
+      <c r="S35">
+        <v>0.0005547708456999139</v>
+      </c>
+      <c r="T35">
+        <v>0.0005104567296373298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7290775</v>
+      </c>
+      <c r="H36">
+        <v>1.458155</v>
+      </c>
+      <c r="I36">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J36">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.949111</v>
+      </c>
+      <c r="N36">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P36">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q36">
+        <v>2.1501304751025</v>
+      </c>
+      <c r="R36">
+        <v>12.900782850615</v>
+      </c>
+      <c r="S36">
+        <v>0.03022484257501189</v>
+      </c>
+      <c r="T36">
+        <v>0.02781053549268387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7290775</v>
+      </c>
+      <c r="H37">
+        <v>1.458155</v>
+      </c>
+      <c r="I37">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J37">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N37">
+        <v>1.620553</v>
+      </c>
+      <c r="O37">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P37">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q37">
+        <v>0.5907543649287501</v>
+      </c>
+      <c r="R37">
+        <v>2.363017459715</v>
+      </c>
+      <c r="S37">
+        <v>0.008304360078251251</v>
+      </c>
+      <c r="T37">
+        <v>0.005094014967479501</v>
       </c>
     </row>
   </sheetData>
